--- a/Data/Input/EmployeesInformations.xlsx
+++ b/Data/Input/EmployeesInformations.xlsx
@@ -1273,26 +1273,26 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D2" r:id="rId41"/>
-    <x:hyperlink ref="D3" r:id="rId42"/>
-    <x:hyperlink ref="D4" r:id="rId43"/>
-    <x:hyperlink ref="D5" r:id="rId44"/>
-    <x:hyperlink ref="D6" r:id="rId45"/>
-    <x:hyperlink ref="D7" r:id="rId46"/>
-    <x:hyperlink ref="D8" r:id="rId47"/>
-    <x:hyperlink ref="D9" r:id="rId48"/>
-    <x:hyperlink ref="D10" r:id="rId49"/>
-    <x:hyperlink ref="F10" r:id="rId50"/>
-    <x:hyperlink ref="F2" r:id="rId51"/>
-    <x:hyperlink ref="F3" r:id="rId52"/>
-    <x:hyperlink ref="F4" r:id="rId53"/>
-    <x:hyperlink ref="F6" r:id="rId54"/>
-    <x:hyperlink ref="F5" r:id="rId55"/>
-    <x:hyperlink ref="F7" r:id="rId56"/>
-    <x:hyperlink ref="F8" r:id="rId57"/>
-    <x:hyperlink ref="F9" r:id="rId58"/>
-    <x:hyperlink ref="D11" r:id="rId59"/>
-    <x:hyperlink ref="F11" r:id="rId60"/>
+    <x:hyperlink ref="D2" r:id="rId29"/>
+    <x:hyperlink ref="D3" r:id="rId30"/>
+    <x:hyperlink ref="D4" r:id="rId31"/>
+    <x:hyperlink ref="D5" r:id="rId32"/>
+    <x:hyperlink ref="D6" r:id="rId33"/>
+    <x:hyperlink ref="D7" r:id="rId34"/>
+    <x:hyperlink ref="D8" r:id="rId35"/>
+    <x:hyperlink ref="D9" r:id="rId36"/>
+    <x:hyperlink ref="D10" r:id="rId37"/>
+    <x:hyperlink ref="F10" r:id="rId38"/>
+    <x:hyperlink ref="F2" r:id="rId39"/>
+    <x:hyperlink ref="F3" r:id="rId40"/>
+    <x:hyperlink ref="F4" r:id="rId61"/>
+    <x:hyperlink ref="F6" r:id="rId62"/>
+    <x:hyperlink ref="F5" r:id="rId63"/>
+    <x:hyperlink ref="F7" r:id="rId64"/>
+    <x:hyperlink ref="F8" r:id="rId65"/>
+    <x:hyperlink ref="F9" r:id="rId66"/>
+    <x:hyperlink ref="D11" r:id="rId67"/>
+    <x:hyperlink ref="F11" r:id="rId68"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1393,10 +1393,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId61"/>
-    <x:hyperlink ref="C3" r:id="rId62"/>
-    <x:hyperlink ref="C4" r:id="rId63"/>
-    <x:hyperlink ref="C5" r:id="rId64"/>
+    <x:hyperlink ref="C2" r:id="rId69"/>
+    <x:hyperlink ref="C3" r:id="rId70"/>
+    <x:hyperlink ref="C4" r:id="rId71"/>
+    <x:hyperlink ref="C5" r:id="rId72"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,19 +1668,19 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId65"/>
-    <x:hyperlink ref="C3" r:id="rId66"/>
-    <x:hyperlink ref="C4" r:id="rId67"/>
-    <x:hyperlink ref="C5" r:id="rId68"/>
-    <x:hyperlink ref="C6" r:id="rId69"/>
-    <x:hyperlink ref="C7" r:id="rId70"/>
-    <x:hyperlink ref="C8" r:id="rId71"/>
-    <x:hyperlink ref="C9" r:id="rId72"/>
-    <x:hyperlink ref="C10" r:id="rId73"/>
-    <x:hyperlink ref="C11" r:id="rId74"/>
-    <x:hyperlink ref="C12" r:id="rId75"/>
-    <x:hyperlink ref="C13" r:id="rId76"/>
-    <x:hyperlink ref="C14" r:id="rId77"/>
+    <x:hyperlink ref="C2" r:id="rId78"/>
+    <x:hyperlink ref="C3" r:id="rId79"/>
+    <x:hyperlink ref="C4" r:id="rId80"/>
+    <x:hyperlink ref="C5" r:id="rId81"/>
+    <x:hyperlink ref="C6" r:id="rId82"/>
+    <x:hyperlink ref="C7" r:id="rId83"/>
+    <x:hyperlink ref="C8" r:id="rId84"/>
+    <x:hyperlink ref="C9" r:id="rId85"/>
+    <x:hyperlink ref="C10" r:id="rId86"/>
+    <x:hyperlink ref="C11" r:id="rId87"/>
+    <x:hyperlink ref="C12" r:id="rId88"/>
+    <x:hyperlink ref="C13" r:id="rId89"/>
+    <x:hyperlink ref="C14" r:id="rId90"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1749,10 +1749,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A2" r:id="rId78"/>
-    <x:hyperlink ref="A3" r:id="rId79"/>
-    <x:hyperlink ref="A4" r:id="rId80"/>
-    <x:hyperlink ref="A5" r:id="rId81"/>
+    <x:hyperlink ref="A2" r:id="rId91"/>
+    <x:hyperlink ref="A3" r:id="rId92"/>
+    <x:hyperlink ref="A4" r:id="rId93"/>
+    <x:hyperlink ref="A5" r:id="rId94"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Input/EmployeesInformations.xlsx
+++ b/Data/Input/EmployeesInformations.xlsx
@@ -1273,26 +1273,26 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D2" r:id="rId29"/>
-    <x:hyperlink ref="D3" r:id="rId30"/>
-    <x:hyperlink ref="D4" r:id="rId31"/>
-    <x:hyperlink ref="D5" r:id="rId32"/>
-    <x:hyperlink ref="D6" r:id="rId33"/>
-    <x:hyperlink ref="D7" r:id="rId34"/>
-    <x:hyperlink ref="D8" r:id="rId35"/>
-    <x:hyperlink ref="D9" r:id="rId36"/>
-    <x:hyperlink ref="D10" r:id="rId37"/>
-    <x:hyperlink ref="F10" r:id="rId38"/>
-    <x:hyperlink ref="F2" r:id="rId39"/>
-    <x:hyperlink ref="F3" r:id="rId40"/>
-    <x:hyperlink ref="F4" r:id="rId61"/>
-    <x:hyperlink ref="F6" r:id="rId62"/>
-    <x:hyperlink ref="F5" r:id="rId63"/>
-    <x:hyperlink ref="F7" r:id="rId64"/>
-    <x:hyperlink ref="F8" r:id="rId65"/>
-    <x:hyperlink ref="F9" r:id="rId66"/>
-    <x:hyperlink ref="D11" r:id="rId67"/>
-    <x:hyperlink ref="F11" r:id="rId68"/>
+    <x:hyperlink ref="D2" r:id="rId41"/>
+    <x:hyperlink ref="D3" r:id="rId42"/>
+    <x:hyperlink ref="D4" r:id="rId43"/>
+    <x:hyperlink ref="D5" r:id="rId44"/>
+    <x:hyperlink ref="D6" r:id="rId45"/>
+    <x:hyperlink ref="D7" r:id="rId46"/>
+    <x:hyperlink ref="D8" r:id="rId47"/>
+    <x:hyperlink ref="D9" r:id="rId48"/>
+    <x:hyperlink ref="D10" r:id="rId49"/>
+    <x:hyperlink ref="F10" r:id="rId50"/>
+    <x:hyperlink ref="F2" r:id="rId51"/>
+    <x:hyperlink ref="F3" r:id="rId52"/>
+    <x:hyperlink ref="F4" r:id="rId53"/>
+    <x:hyperlink ref="F6" r:id="rId54"/>
+    <x:hyperlink ref="F5" r:id="rId55"/>
+    <x:hyperlink ref="F7" r:id="rId56"/>
+    <x:hyperlink ref="F8" r:id="rId57"/>
+    <x:hyperlink ref="F9" r:id="rId58"/>
+    <x:hyperlink ref="D11" r:id="rId59"/>
+    <x:hyperlink ref="F11" r:id="rId60"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1393,10 +1393,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId69"/>
-    <x:hyperlink ref="C3" r:id="rId70"/>
-    <x:hyperlink ref="C4" r:id="rId71"/>
-    <x:hyperlink ref="C5" r:id="rId72"/>
+    <x:hyperlink ref="C2" r:id="rId73"/>
+    <x:hyperlink ref="C3" r:id="rId74"/>
+    <x:hyperlink ref="C4" r:id="rId75"/>
+    <x:hyperlink ref="C5" r:id="rId76"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1668,19 +1668,19 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId78"/>
-    <x:hyperlink ref="C3" r:id="rId79"/>
-    <x:hyperlink ref="C4" r:id="rId80"/>
-    <x:hyperlink ref="C5" r:id="rId81"/>
-    <x:hyperlink ref="C6" r:id="rId82"/>
-    <x:hyperlink ref="C7" r:id="rId83"/>
-    <x:hyperlink ref="C8" r:id="rId84"/>
-    <x:hyperlink ref="C9" r:id="rId85"/>
-    <x:hyperlink ref="C10" r:id="rId86"/>
-    <x:hyperlink ref="C11" r:id="rId87"/>
-    <x:hyperlink ref="C12" r:id="rId88"/>
-    <x:hyperlink ref="C13" r:id="rId89"/>
-    <x:hyperlink ref="C14" r:id="rId90"/>
+    <x:hyperlink ref="C2" r:id="rId77"/>
+    <x:hyperlink ref="C3" r:id="rId91"/>
+    <x:hyperlink ref="C4" r:id="rId92"/>
+    <x:hyperlink ref="C5" r:id="rId93"/>
+    <x:hyperlink ref="C6" r:id="rId94"/>
+    <x:hyperlink ref="C7" r:id="rId95"/>
+    <x:hyperlink ref="C8" r:id="rId96"/>
+    <x:hyperlink ref="C9" r:id="rId97"/>
+    <x:hyperlink ref="C10" r:id="rId98"/>
+    <x:hyperlink ref="C11" r:id="rId99"/>
+    <x:hyperlink ref="C12" r:id="rId100"/>
+    <x:hyperlink ref="C13" r:id="rId101"/>
+    <x:hyperlink ref="C14" r:id="rId102"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1749,10 +1749,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A2" r:id="rId91"/>
-    <x:hyperlink ref="A3" r:id="rId92"/>
-    <x:hyperlink ref="A4" r:id="rId93"/>
-    <x:hyperlink ref="A5" r:id="rId94"/>
+    <x:hyperlink ref="A2" r:id="rId103"/>
+    <x:hyperlink ref="A3" r:id="rId104"/>
+    <x:hyperlink ref="A4" r:id="rId105"/>
+    <x:hyperlink ref="A5" r:id="rId106"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Input/EmployeesInformations.xlsx
+++ b/Data/Input/EmployeesInformations.xlsx
@@ -5,19 +5,19 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\RPA\MetaMarian\MetaMarian_Robot\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\RPA\MetaMarian\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F30326-CF63-474B-A31A-1E6DC1925B38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5946485-AE37-4A11-97E2-4C9F786C00A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Employees" sheetId="1" r:id="rId1"/>
     <x:sheet name="Managers" sheetId="2" r:id="rId2"/>
     <x:sheet name="Mentors" sheetId="3" r:id="rId3"/>
     <x:sheet name="UsefulLinks" sheetId="4" r:id="rId4"/>
-    <x:sheet name="PracticeFormular" sheetId="5" r:id="rId5"/>
+    <x:sheet name="PracticeForm" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>First Name</x:t>
   </x:si>
@@ -517,16 +517,127 @@
     <x:t>Introduction in JavaScript</x:t>
   </x:si>
   <x:si>
+    <x:t>Processed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employee id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field of study(specialization)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Year of studies</x:t>
+  </x:si>
+  <x:si>
     <x:t>Faculty</x:t>
   </x:si>
   <x:si>
     <x:t>University</x:t>
   </x:si>
   <x:si>
-    <x:t>Position in company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number of hours of practice</x:t>
+    <x:t>Number of practical hours required</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsffsd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fafaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vdffd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fefe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hfhf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hjk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kuh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>,nj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kjkgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>da</x:t>
+  </x:si>
+  <x:si>
+    <x:t>address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>csd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vsdv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vsdd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>czc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dwefwe</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -536,7 +647,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="4" x14ac:knownFonts="1">
+  <x:fonts count="5" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -558,6 +669,12 @@
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
+      <x:sz val="10"/>
+      <x:color theme="1"/>
+      <x:name val="Arial"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -573,7 +690,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border>
       <x:left/>
       <x:right/>
@@ -581,8 +698,23 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FFCCCCCC"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -591,14 +723,22 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1273,26 +1413,26 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D2" r:id="rId41"/>
-    <x:hyperlink ref="D3" r:id="rId42"/>
-    <x:hyperlink ref="D4" r:id="rId43"/>
-    <x:hyperlink ref="D5" r:id="rId44"/>
-    <x:hyperlink ref="D6" r:id="rId45"/>
-    <x:hyperlink ref="D7" r:id="rId46"/>
-    <x:hyperlink ref="D8" r:id="rId47"/>
-    <x:hyperlink ref="D9" r:id="rId48"/>
-    <x:hyperlink ref="D10" r:id="rId49"/>
-    <x:hyperlink ref="F10" r:id="rId50"/>
-    <x:hyperlink ref="F2" r:id="rId51"/>
-    <x:hyperlink ref="F3" r:id="rId52"/>
-    <x:hyperlink ref="F4" r:id="rId53"/>
-    <x:hyperlink ref="F6" r:id="rId54"/>
-    <x:hyperlink ref="F5" r:id="rId55"/>
-    <x:hyperlink ref="F7" r:id="rId56"/>
-    <x:hyperlink ref="F8" r:id="rId57"/>
-    <x:hyperlink ref="F9" r:id="rId58"/>
-    <x:hyperlink ref="D11" r:id="rId59"/>
-    <x:hyperlink ref="F11" r:id="rId60"/>
+    <x:hyperlink ref="D2" r:id="rId29"/>
+    <x:hyperlink ref="D3" r:id="rId30"/>
+    <x:hyperlink ref="D4" r:id="rId31"/>
+    <x:hyperlink ref="D5" r:id="rId32"/>
+    <x:hyperlink ref="D6" r:id="rId33"/>
+    <x:hyperlink ref="D7" r:id="rId34"/>
+    <x:hyperlink ref="D8" r:id="rId35"/>
+    <x:hyperlink ref="D9" r:id="rId36"/>
+    <x:hyperlink ref="D10" r:id="rId37"/>
+    <x:hyperlink ref="F10" r:id="rId38"/>
+    <x:hyperlink ref="F2" r:id="rId39"/>
+    <x:hyperlink ref="F3" r:id="rId40"/>
+    <x:hyperlink ref="F4" r:id="rId61"/>
+    <x:hyperlink ref="F6" r:id="rId62"/>
+    <x:hyperlink ref="F5" r:id="rId63"/>
+    <x:hyperlink ref="F7" r:id="rId64"/>
+    <x:hyperlink ref="F8" r:id="rId65"/>
+    <x:hyperlink ref="F9" r:id="rId66"/>
+    <x:hyperlink ref="D11" r:id="rId67"/>
+    <x:hyperlink ref="F11" r:id="rId68"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1393,10 +1533,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId73"/>
-    <x:hyperlink ref="C3" r:id="rId74"/>
-    <x:hyperlink ref="C4" r:id="rId75"/>
-    <x:hyperlink ref="C5" r:id="rId76"/>
+    <x:hyperlink ref="C2" r:id="rId69"/>
+    <x:hyperlink ref="C3" r:id="rId70"/>
+    <x:hyperlink ref="C4" r:id="rId71"/>
+    <x:hyperlink ref="C5" r:id="rId72"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1413,7 +1553,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:E14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="G15" sqref="G15"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1668,19 +1808,19 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId77"/>
-    <x:hyperlink ref="C3" r:id="rId91"/>
-    <x:hyperlink ref="C4" r:id="rId92"/>
-    <x:hyperlink ref="C5" r:id="rId93"/>
-    <x:hyperlink ref="C6" r:id="rId94"/>
-    <x:hyperlink ref="C7" r:id="rId95"/>
-    <x:hyperlink ref="C8" r:id="rId96"/>
-    <x:hyperlink ref="C9" r:id="rId97"/>
-    <x:hyperlink ref="C10" r:id="rId98"/>
-    <x:hyperlink ref="C11" r:id="rId99"/>
-    <x:hyperlink ref="C12" r:id="rId100"/>
-    <x:hyperlink ref="C13" r:id="rId101"/>
-    <x:hyperlink ref="C14" r:id="rId102"/>
+    <x:hyperlink ref="C2" r:id="rId78"/>
+    <x:hyperlink ref="C3" r:id="rId79"/>
+    <x:hyperlink ref="C4" r:id="rId80"/>
+    <x:hyperlink ref="C5" r:id="rId81"/>
+    <x:hyperlink ref="C6" r:id="rId82"/>
+    <x:hyperlink ref="C7" r:id="rId83"/>
+    <x:hyperlink ref="C8" r:id="rId84"/>
+    <x:hyperlink ref="C9" r:id="rId85"/>
+    <x:hyperlink ref="C10" r:id="rId86"/>
+    <x:hyperlink ref="C11" r:id="rId87"/>
+    <x:hyperlink ref="C12" r:id="rId88"/>
+    <x:hyperlink ref="C13" r:id="rId89"/>
+    <x:hyperlink ref="C14" r:id="rId90"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1749,10 +1889,10 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A2" r:id="rId103"/>
-    <x:hyperlink ref="A3" r:id="rId104"/>
-    <x:hyperlink ref="A4" r:id="rId105"/>
-    <x:hyperlink ref="A5" r:id="rId106"/>
+    <x:hyperlink ref="A2" r:id="rId107"/>
+    <x:hyperlink ref="A3" r:id="rId108"/>
+    <x:hyperlink ref="A4" r:id="rId109"/>
+    <x:hyperlink ref="A5" r:id="rId110"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,50 +1907,194 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G1"/>
+  <x:dimension ref="A1:N1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="F7" sqref="F7"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C6" sqref="C6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.179688" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.269531" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.542969" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="17" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.269531" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="24.453125" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="24.726562" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.363281" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="19.179688" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.269531" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="15.542969" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="30.816406" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="24.453125" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="24.726562" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="13.726562" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.089844" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="29.816406" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <x:row r="1" spans="1:11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A1" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="C1" s="5" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="D1" s="5" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="E1" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1" s="5" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="G1" s="5" t="s">
         <x:v>164</x:v>
+      </x:c>
+      <x:c r="H1" s="5" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="I1" s="5" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="J1" s="5" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="K1" s="4" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="B2" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="B3" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="B4" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="B5" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Data/Input/EmployeesInformations.xlsx
+++ b/Data/Input/EmployeesInformations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\RPA\MetaMarian\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59A35D-E61A-41D8-BF5A-CBE56F70292D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781690BB-AC28-4F8E-B099-CB9E402E68A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="172">
   <si>
     <t>First Name</t>
   </si>
@@ -538,6 +538,15 @@
   </si>
   <si>
     <t>Number of practical hours required</t>
+  </si>
+  <si>
+    <t>Dutu</t>
+  </si>
+  <si>
+    <t>Bucuresti</t>
+  </si>
+  <si>
+    <t>mariadutu.d@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -936,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,7 +1266,30 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
@@ -1759,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED66431-CCB8-4368-A5F8-F715BF9B41A6}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Data/Input/EmployeesInformations.xlsx
+++ b/Data/Input/EmployeesInformations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmin.oanea\Documents\IS\MetaMarian\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EADB901-410B-4A2A-A730-2199AAC0AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F2417-541B-4210-8BD1-EDD7BD112C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <x:si>
     <x:t>First Name</x:t>
   </x:si>
@@ -277,33 +277,45 @@
     <x:t>cosminoanea01@gmail.com</x:t>
   </x:si>
   <x:si>
+    <x:t>devops</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Testescu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>employeetestproject@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dutu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bucuresti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariadutu.d@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Final</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Testescu jr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insulele finale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>finaltestishr@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>george.chirila@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>devops</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Testescu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>employeetestproject@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dutu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bucuresti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mariadutu.d@gmail.com</x:t>
-  </x:si>
-  <x:si>
     <x:t>First name</x:t>
   </x:si>
   <x:si>
@@ -529,34 +541,34 @@
     <x:t>Processed</x:t>
   </x:si>
   <x:si>
+    <x:t>Employee id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field of study(specialization)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Year of studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faculty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number of practical hours required</x:t>
+  </x:si>
+  <x:si>
     <x:t>E-mail address</x:t>
   </x:si>
   <x:si>
-    <x:t>Employee id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Field of study(specialization)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Group</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Year of studies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faculty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number of practical hours required</x:t>
-  </x:si>
-  <x:si>
     <x:t>informatica</x:t>
   </x:si>
   <x:si>
-    <x:t>mate-info</x:t>
+    <x:t>fmi</x:t>
   </x:si>
   <x:si>
     <x:t>unibuc</x:t>
@@ -980,7 +992,7 @@
   <x:dimension ref="A1:I23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="G16" sqref="G16"/>
+      <x:selection activeCell="C15" sqref="C15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,9 +1287,6 @@
       <x:c r="D11" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="F11" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -1288,32 +1297,32 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <x:c r="A12" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="D12" s="1" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <x:c r="A13" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="D13" s="1" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>73</x:v>
@@ -1329,7 +1338,33 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <x:c r="D14" s="1" t="s"/>
+      <x:c r="A14" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <x:c r="D15" s="1" t="s"/>
@@ -1360,30 +1395,31 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D2" r:id="rId21"/>
-    <x:hyperlink ref="D3" r:id="rId22"/>
-    <x:hyperlink ref="D4" r:id="rId23"/>
-    <x:hyperlink ref="D5" r:id="rId24"/>
-    <x:hyperlink ref="D6" r:id="rId25"/>
-    <x:hyperlink ref="D7" r:id="rId26"/>
-    <x:hyperlink ref="D8" r:id="rId27"/>
-    <x:hyperlink ref="D9" r:id="rId28"/>
-    <x:hyperlink ref="D10" r:id="rId29"/>
-    <x:hyperlink ref="F10" r:id="rId30"/>
-    <x:hyperlink ref="F2" r:id="rId31"/>
-    <x:hyperlink ref="F3" r:id="rId32"/>
-    <x:hyperlink ref="F4" r:id="rId33"/>
-    <x:hyperlink ref="F6" r:id="rId34"/>
-    <x:hyperlink ref="F5" r:id="rId35"/>
-    <x:hyperlink ref="F7" r:id="rId36"/>
-    <x:hyperlink ref="F8" r:id="rId37"/>
-    <x:hyperlink ref="F9" r:id="rId38"/>
-    <x:hyperlink ref="D11" r:id="rId39"/>
-    <x:hyperlink ref="F11" r:id="rId40"/>
+    <x:hyperlink ref="D2" r:id="rId31"/>
+    <x:hyperlink ref="D3" r:id="rId32"/>
+    <x:hyperlink ref="D4" r:id="rId33"/>
+    <x:hyperlink ref="D5" r:id="rId34"/>
+    <x:hyperlink ref="D6" r:id="rId35"/>
+    <x:hyperlink ref="D7" r:id="rId36"/>
+    <x:hyperlink ref="D8" r:id="rId37"/>
+    <x:hyperlink ref="D9" r:id="rId38"/>
+    <x:hyperlink ref="D10" r:id="rId39"/>
+    <x:hyperlink ref="F10" r:id="rId40"/>
+    <x:hyperlink ref="F2" r:id="rId41"/>
+    <x:hyperlink ref="F3" r:id="rId42"/>
+    <x:hyperlink ref="F4" r:id="rId43"/>
+    <x:hyperlink ref="F6" r:id="rId65"/>
+    <x:hyperlink ref="F5" r:id="rId66"/>
+    <x:hyperlink ref="F7" r:id="rId67"/>
+    <x:hyperlink ref="F8" r:id="rId68"/>
+    <x:hyperlink ref="F9" r:id="rId69"/>
+    <x:hyperlink ref="D11" r:id="rId70"/>
+    <x:hyperlink ref="F11" r:id="rId71"/>
+    <x:hyperlink ref="D14" r:id="rId72"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId22"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
@@ -1410,80 +1446,80 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A3" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A4" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A5" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId41"/>
-    <x:hyperlink ref="C3" r:id="rId42"/>
-    <x:hyperlink ref="C4" r:id="rId43"/>
-    <x:hyperlink ref="C5" r:id="rId44"/>
+    <x:hyperlink ref="C2" r:id="rId73"/>
+    <x:hyperlink ref="C3" r:id="rId74"/>
+    <x:hyperlink ref="C4" r:id="rId75"/>
+    <x:hyperlink ref="C5" r:id="rId76"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,10 +1553,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>3</x:v>
@@ -1529,194 +1565,194 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A3" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A4" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A5" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A6" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A7" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A8" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A9" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A10" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A11" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A12" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1724,50 +1760,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A14" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId45"/>
-    <x:hyperlink ref="C3" r:id="rId46"/>
-    <x:hyperlink ref="C4" r:id="rId47"/>
-    <x:hyperlink ref="C5" r:id="rId48"/>
-    <x:hyperlink ref="C6" r:id="rId49"/>
-    <x:hyperlink ref="C7" r:id="rId50"/>
-    <x:hyperlink ref="C8" r:id="rId51"/>
-    <x:hyperlink ref="C9" r:id="rId52"/>
-    <x:hyperlink ref="C10" r:id="rId53"/>
-    <x:hyperlink ref="C11" r:id="rId54"/>
-    <x:hyperlink ref="C12" r:id="rId55"/>
-    <x:hyperlink ref="C13" r:id="rId56"/>
-    <x:hyperlink ref="C14" r:id="rId57"/>
+    <x:hyperlink ref="C2" r:id="rId82"/>
+    <x:hyperlink ref="C3" r:id="rId83"/>
+    <x:hyperlink ref="C4" r:id="rId84"/>
+    <x:hyperlink ref="C5" r:id="rId85"/>
+    <x:hyperlink ref="C6" r:id="rId86"/>
+    <x:hyperlink ref="C7" r:id="rId87"/>
+    <x:hyperlink ref="C8" r:id="rId88"/>
+    <x:hyperlink ref="C9" r:id="rId89"/>
+    <x:hyperlink ref="C10" r:id="rId90"/>
+    <x:hyperlink ref="C11" r:id="rId91"/>
+    <x:hyperlink ref="C12" r:id="rId92"/>
+    <x:hyperlink ref="C13" r:id="rId93"/>
+    <x:hyperlink ref="C14" r:id="rId94"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1796,50 +1832,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A2" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A3" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A4" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A5" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A2" r:id="rId58"/>
-    <x:hyperlink ref="A3" r:id="rId59"/>
-    <x:hyperlink ref="A4" r:id="rId60"/>
-    <x:hyperlink ref="A5" r:id="rId61"/>
+    <x:hyperlink ref="A2" r:id="rId111"/>
+    <x:hyperlink ref="A3" r:id="rId112"/>
+    <x:hyperlink ref="A4" r:id="rId113"/>
+    <x:hyperlink ref="A5" r:id="rId114"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1854,107 +1890,149 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L2"/>
+  <x:dimension ref="A1:L16"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6"/>
+      <x:selection activeCell="B8" sqref="B8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
     <x:col min="1" max="1" width="11.363281" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.542969" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.179688" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="17.269531" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.542969" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="30.816406" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="24.453125" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="24.726562" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="23.726562" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.089844" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="29.816406" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="19.179688" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.269531" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="15.542969" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="30.816406" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="24.453125" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="24.726562" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="23.726562" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.089844" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="29.816406" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="25" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A1" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>165</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I1" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J1" s="5" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="L1" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="K1" s="4" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="n">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="n">
-        <x:v>351</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="n">
-        <x:v>160</x:v>
-      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L3" s="1" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L4" s="1" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L5" s="1" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L6" s="1" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L7" s="1" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L8" s="1" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L9" s="1" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L10" s="1" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L11" s="1" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L12" s="1" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L13" s="1" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L14" s="1" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L15" s="1" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <x:c r="L16" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" r:id="rId62"/>
+    <x:hyperlink ref="L2" r:id="rId115"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Input/EmployeesInformations.xlsx
+++ b/Data/Input/EmployeesInformations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmin.oanea\Documents\IS\MetaMarian\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F2417-541B-4210-8BD1-EDD7BD112C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF5C96-3320-425F-8CA4-702DAA92AAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <x:si>
     <x:t>First Name</x:t>
   </x:si>
@@ -301,6 +301,9 @@
     <x:t>mariadutu.d@gmail.com</x:t>
   </x:si>
   <x:si>
+    <x:t>iulia.grecu@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>Final</x:t>
   </x:si>
   <x:si>
@@ -313,189 +316,198 @@
     <x:t>finaltestishr@gmail.com</x:t>
   </x:si>
   <x:si>
+    <x:t>Prezzentare</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prezentarescu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insulele prezentare</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rpa.presis22@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>First name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Last name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Led department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claudia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crăciun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>development department</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mihaela </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stanciu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>integration department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ciprian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Păduraru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>testing department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mara Elena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dascălu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the maintenance and technical support department</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Availability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Badea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alexandra.badea@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior C++ developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Catalin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ilie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>catalin.ilie@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior Java developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stamate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monica.stamate@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior tester</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crețu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maria.cretu@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior ux designer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Claudiu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>claudiu.pop@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior dba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Razvan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>razvan.ionescu@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior full stack developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iulia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grecu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior ui designer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mihnea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scurtu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mihnea.scurtu@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>project architect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cristian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cotoia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cristian.cotoia@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior C# developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marius</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>senior devops</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrei</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dumitrescu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>andrei.dumitrescu@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>front end developer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chirila</x:t>
+  </x:si>
+  <x:si>
     <x:t>george.chirila@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>First name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Last name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Led department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claudia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crăciun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>development department</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mihaela </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stanciu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>integration department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ciprian</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Păduraru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>testing department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mara Elena</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dascălu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the maintenance and technical support department</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Availability</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Badea</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alexandra.badea@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior C++ developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Catalin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ilie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>catalin.ilie@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior Java developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stamate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>monica.stamate@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior tester</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crețu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maria.cretu@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior ux designer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claudiu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>claudiu.pop@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior dba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Razvan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>razvan.ionescu@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior full stack developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iulia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grecu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iulia.grecu@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior ui designer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mihnea</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scurtu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mihnea.scurtu@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>project architect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cristian</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cotoia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cristian.cotoia@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior C# developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marius</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>senior devops</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dumitrescu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>andrei.dumitrescu@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>front end developer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chirila</x:t>
-  </x:si>
-  <x:si>
     <x:t>Georgiana</x:t>
   </x:si>
   <x:si>
@@ -572,6 +584,9 @@
   </x:si>
   <x:si>
     <x:t>unibuc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -989,9 +1004,9 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I23"/>
+  <x:dimension ref="A1:I22"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
+    <x:sheetView topLeftCell="C1" workbookViewId="0">
       <x:selection activeCell="C15" sqref="C15"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1324,6 +1339,9 @@
       <x:c r="D13" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -1339,18 +1357,15 @@
     </x:row>
     <x:row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <x:c r="A14" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
@@ -1367,7 +1382,33 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <x:c r="D15" s="1" t="s"/>
+      <x:c r="A15" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <x:c r="D16" s="1" t="s"/>
@@ -1390,36 +1431,35 @@
     <x:row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <x:c r="D22" s="1" t="s"/>
     </x:row>
-    <x:row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <x:c r="D23" s="1" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D2" r:id="rId31"/>
-    <x:hyperlink ref="D3" r:id="rId32"/>
-    <x:hyperlink ref="D4" r:id="rId33"/>
-    <x:hyperlink ref="D5" r:id="rId34"/>
-    <x:hyperlink ref="D6" r:id="rId35"/>
-    <x:hyperlink ref="D7" r:id="rId36"/>
-    <x:hyperlink ref="D8" r:id="rId37"/>
-    <x:hyperlink ref="D9" r:id="rId38"/>
-    <x:hyperlink ref="D10" r:id="rId39"/>
-    <x:hyperlink ref="F10" r:id="rId40"/>
-    <x:hyperlink ref="F2" r:id="rId41"/>
-    <x:hyperlink ref="F3" r:id="rId42"/>
-    <x:hyperlink ref="F4" r:id="rId43"/>
-    <x:hyperlink ref="F6" r:id="rId65"/>
-    <x:hyperlink ref="F5" r:id="rId66"/>
-    <x:hyperlink ref="F7" r:id="rId67"/>
-    <x:hyperlink ref="F8" r:id="rId68"/>
-    <x:hyperlink ref="F9" r:id="rId69"/>
-    <x:hyperlink ref="D11" r:id="rId70"/>
-    <x:hyperlink ref="F11" r:id="rId71"/>
-    <x:hyperlink ref="D14" r:id="rId72"/>
+    <x:hyperlink ref="D2" r:id="rId48"/>
+    <x:hyperlink ref="D3" r:id="rId49"/>
+    <x:hyperlink ref="D4" r:id="rId50"/>
+    <x:hyperlink ref="D5" r:id="rId51"/>
+    <x:hyperlink ref="D6" r:id="rId52"/>
+    <x:hyperlink ref="D7" r:id="rId53"/>
+    <x:hyperlink ref="D8" r:id="rId54"/>
+    <x:hyperlink ref="D9" r:id="rId55"/>
+    <x:hyperlink ref="D10" r:id="rId56"/>
+    <x:hyperlink ref="F10" r:id="rId57"/>
+    <x:hyperlink ref="F2" r:id="rId58"/>
+    <x:hyperlink ref="F3" r:id="rId59"/>
+    <x:hyperlink ref="F4" r:id="rId60"/>
+    <x:hyperlink ref="F6" r:id="rId61"/>
+    <x:hyperlink ref="F5" r:id="rId62"/>
+    <x:hyperlink ref="F7" r:id="rId63"/>
+    <x:hyperlink ref="F8" r:id="rId64"/>
+    <x:hyperlink ref="F9" r:id="rId65"/>
+    <x:hyperlink ref="D11" r:id="rId66"/>
+    <x:hyperlink ref="F11" r:id="rId67"/>
+    <x:hyperlink ref="D14" r:id="rId68"/>
+    <x:hyperlink ref="D15" r:id="rId69"/>
+    <x:hyperlink ref="F15" r:id="rId70"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId22"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId24"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
@@ -1433,7 +1473,7 @@
   <x:dimension ref="A1:D5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
-      <x:selection activeCell="C5" sqref="C5"/>
+      <x:selection activeCell="C15" sqref="C15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,80 +1486,80 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A3" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A4" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <x:c r="A5" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId73"/>
-    <x:hyperlink ref="C3" r:id="rId74"/>
-    <x:hyperlink ref="C4" r:id="rId75"/>
-    <x:hyperlink ref="C5" r:id="rId76"/>
+    <x:hyperlink ref="C2" r:id="rId83"/>
+    <x:hyperlink ref="C3" r:id="rId84"/>
+    <x:hyperlink ref="C4" r:id="rId85"/>
+    <x:hyperlink ref="C5" r:id="rId86"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,8 +1576,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:E14"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E14" sqref="E14"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E12" sqref="E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1553,10 +1593,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>3</x:v>
@@ -1565,58 +1605,58 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A3" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A4" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1624,135 +1664,135 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A6" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A7" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A8" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A9" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A10" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A11" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A12" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1760,50 +1800,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <x:c r="A14" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="C2" r:id="rId82"/>
-    <x:hyperlink ref="C3" r:id="rId83"/>
-    <x:hyperlink ref="C4" r:id="rId84"/>
-    <x:hyperlink ref="C5" r:id="rId85"/>
-    <x:hyperlink ref="C6" r:id="rId86"/>
-    <x:hyperlink ref="C7" r:id="rId87"/>
-    <x:hyperlink ref="C8" r:id="rId88"/>
-    <x:hyperlink ref="C9" r:id="rId89"/>
-    <x:hyperlink ref="C10" r:id="rId90"/>
-    <x:hyperlink ref="C11" r:id="rId91"/>
-    <x:hyperlink ref="C12" r:id="rId92"/>
-    <x:hyperlink ref="C13" r:id="rId93"/>
-    <x:hyperlink ref="C14" r:id="rId94"/>
+    <x:hyperlink ref="C2" r:id="rId87"/>
+    <x:hyperlink ref="C3" r:id="rId101"/>
+    <x:hyperlink ref="C4" r:id="rId102"/>
+    <x:hyperlink ref="C5" r:id="rId103"/>
+    <x:hyperlink ref="C6" r:id="rId104"/>
+    <x:hyperlink ref="C7" r:id="rId105"/>
+    <x:hyperlink ref="C8" r:id="rId106"/>
+    <x:hyperlink ref="C9" r:id="rId107"/>
+    <x:hyperlink ref="C10" r:id="rId108"/>
+    <x:hyperlink ref="C11" r:id="rId109"/>
+    <x:hyperlink ref="C12" r:id="rId110"/>
+    <x:hyperlink ref="C13" r:id="rId111"/>
+    <x:hyperlink ref="C14" r:id="rId112"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,50 +1872,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A2" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A3" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A4" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <x:c r="A5" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A2" r:id="rId111"/>
-    <x:hyperlink ref="A3" r:id="rId112"/>
-    <x:hyperlink ref="A4" r:id="rId113"/>
-    <x:hyperlink ref="A5" r:id="rId114"/>
+    <x:hyperlink ref="A2" r:id="rId113"/>
+    <x:hyperlink ref="A3" r:id="rId114"/>
+    <x:hyperlink ref="A4" r:id="rId115"/>
+    <x:hyperlink ref="A5" r:id="rId116"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1892,8 +1932,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:L16"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B8" sqref="B8"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D9" sqref="D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1914,45 +1954,45 @@
   <x:sheetData>
     <x:row r="1" spans="1:12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A1" s="5" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I1" s="5" t="s">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="J1" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>175</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>77</x:v>
@@ -1967,7 +2007,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>351</x:v>
@@ -1976,10 +2016,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
         <x:v>160</x:v>
@@ -1989,10 +2029,80 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <x:c r="L3" s="1" t="s"/>
+      <x:c r="A3" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="n">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <x:c r="L4" s="1" t="s"/>
+      <x:c r="A4" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <x:c r="L5" s="1" t="s"/>
@@ -2032,7 +2142,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="L2" r:id="rId115"/>
+    <x:hyperlink ref="L2" r:id="rId117"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
